--- a/配置文档/测试/属性配置.xlsx
+++ b/配置文档/测试/属性配置.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AttributeData_实体属性表!$A$1:$K$14</definedName>
     <definedName name="ExternalData_1" localSheetId="5">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="5">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="5">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="5">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="285">
   <si>
     <t>该表用于保存属性基础数据
 不想填就写 #BASEVALUE</t>
@@ -713,12 +713,18 @@
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
     <t>数据类型示例</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -728,6 +734,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -764,6 +773,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -812,6 +824,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -842,6 +857,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -851,6 +869,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -878,6 +899,9 @@
     <t>PNG</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -899,21 +923,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -933,6 +957,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -1797,12 +1830,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -4261,20 +4295,21 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="129.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
@@ -4287,8 +4322,11 @@
       <c r="D1" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4296,27 +4334,33 @@
         <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>204</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>208</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4327,24 +4371,30 @@
         <v>207</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>210</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>213</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4352,55 +4402,65 @@
         <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>215</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>217</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>221</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>224</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4408,229 +4468,295 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>226</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>229</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>232</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>220</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>236</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>238</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>239</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>240</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>243</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>244</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>245</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>246</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>247</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>253</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>255</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>259</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>262</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>265</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4638,77 +4764,108 @@
         <v>190</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>267</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>271</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>274</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>276</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>270</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3">
+        <v>278</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>273</v>
+      <c r="B37" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/测试/属性配置.xlsx
+++ b/配置文档/测试/属性配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="4"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AttributeBase_属性表" sheetId="8" r:id="rId1"/>
@@ -1634,14 +1634,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2100,756 +2097,756 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="43.375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="19" customWidth="1"/>
-    <col min="3" max="3" width="41.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="52.4916666666667" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="43.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="41.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="52.4916666666667" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="96" customHeight="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="11" customFormat="1" ht="96" customHeight="1" spans="1:5">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="22" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A2" s="32" t="s">
+    <row r="2" s="21" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
         <v>2</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="33">
         <v>2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="22" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A3" s="32" t="s">
+    <row r="3" s="21" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="22" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A4" s="32" t="s">
+    <row r="4" s="21" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="23" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
+    <row r="5" s="22" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A6" s="21">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21" t="s">
+    <row r="6" s="20" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" s="21" customFormat="1" ht="42.75" spans="1:5">
-      <c r="A7" s="21">
-        <v>1</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="E6" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" s="20" customFormat="1" ht="42.75" spans="1:5">
+      <c r="A7" s="20">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" s="21" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B8" s="21">
+      <c r="E7" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" s="20" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B8" s="20">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" s="21" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A9" s="21">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="E8" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="20" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A9" s="20">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" s="21" customFormat="1" ht="57" spans="1:5">
-      <c r="A10" s="21">
-        <v>1</v>
-      </c>
-      <c r="B10" s="21">
+      <c r="E9" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="20" customFormat="1" ht="57" spans="1:5">
+      <c r="A10" s="20">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20">
         <v>5</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" s="21" customFormat="1" ht="85.5" spans="1:5">
-      <c r="A11" s="21">
-        <v>1</v>
-      </c>
-      <c r="B11" s="21">
+      <c r="E10" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="1" ht="85.5" spans="1:5">
+      <c r="A11" s="20">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20">
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" s="24" customFormat="1" ht="156.75" spans="1:5">
-      <c r="A12" s="24">
-        <v>1</v>
-      </c>
-      <c r="B12" s="21">
+      <c r="E11" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" s="23" customFormat="1" ht="156.75" spans="1:5">
+      <c r="A12" s="23">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" ht="57" spans="1:5">
-      <c r="A13" s="24">
-        <v>1</v>
-      </c>
-      <c r="B13" s="21">
+      <c r="A13" s="23">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20">
         <v>8</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" s="25" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B14" s="36" t="s">
+      <c r="E13" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" s="24" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" s="26" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B16" s="37" t="s">
+    <row r="16" s="25" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:5">
-      <c r="A17" s="19">
-        <v>1</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="18">
         <v>101</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="81" spans="1:5">
-      <c r="A18" s="19">
-        <v>1</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
         <v>102</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:5">
-      <c r="A19" s="19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="19">
+      <c r="A19" s="18">
+        <v>1</v>
+      </c>
+      <c r="B19" s="18">
         <v>103</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="19">
-        <v>1</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="A20" s="18">
+        <v>1</v>
+      </c>
+      <c r="B20" s="18">
         <v>104</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" s="26" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B21" s="37" t="s">
+      <c r="E20" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" s="25" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:5">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" s="27" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B23" s="39" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" s="26" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:5">
-      <c r="A24" s="19">
-        <v>1</v>
-      </c>
-      <c r="B24" s="19">
+      <c r="A24" s="18">
+        <v>1</v>
+      </c>
+      <c r="B24" s="18">
         <v>201</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="19">
-        <v>1</v>
-      </c>
-      <c r="B25" s="19">
+      <c r="A25" s="18">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18">
         <v>202</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" ht="54" spans="1:5">
-      <c r="A26" s="19">
-        <v>1</v>
-      </c>
-      <c r="B26" s="19">
+      <c r="A26" s="18">
+        <v>1</v>
+      </c>
+      <c r="B26" s="18">
         <v>203</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" s="16" customFormat="1" ht="54" spans="1:5">
-      <c r="A27" s="19">
-        <v>1</v>
-      </c>
-      <c r="B27" s="19">
+      <c r="E26" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" s="15" customFormat="1" ht="54" spans="1:5">
+      <c r="A27" s="18">
+        <v>1</v>
+      </c>
+      <c r="B27" s="18">
         <v>204</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" s="27" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B28" s="39" t="s">
+      <c r="E27" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" s="26" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="5:5">
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" s="28" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B30" s="40" t="s">
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" s="27" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
-      <c r="A31" s="19">
-        <v>1</v>
-      </c>
-      <c r="B31" s="19">
+      <c r="A31" s="18">
+        <v>1</v>
+      </c>
+      <c r="B31" s="18">
         <v>301</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
-      <c r="A32" s="19">
-        <v>1</v>
-      </c>
-      <c r="B32" s="19">
+      <c r="A32" s="18">
+        <v>1</v>
+      </c>
+      <c r="B32" s="18">
         <v>302</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:5">
-      <c r="A33" s="19">
-        <v>1</v>
-      </c>
-      <c r="B33" s="19">
+      <c r="A33" s="18">
+        <v>1</v>
+      </c>
+      <c r="B33" s="18">
         <v>303</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:5">
-      <c r="A34" s="19">
-        <v>1</v>
-      </c>
-      <c r="B34" s="19">
+      <c r="A34" s="18">
+        <v>1</v>
+      </c>
+      <c r="B34" s="18">
         <v>304</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" ht="67.5" spans="1:5">
-      <c r="A35" s="19">
-        <v>1</v>
-      </c>
-      <c r="B35" s="19">
+      <c r="A35" s="18">
+        <v>1</v>
+      </c>
+      <c r="B35" s="18">
         <v>305</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:5">
-      <c r="A36" s="19">
-        <v>1</v>
-      </c>
-      <c r="B36" s="19">
+      <c r="A36" s="18">
+        <v>1</v>
+      </c>
+      <c r="B36" s="18">
         <v>306</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
-      <c r="A37" s="19">
-        <v>1</v>
-      </c>
-      <c r="B37" s="19">
+      <c r="A37" s="18">
+        <v>1</v>
+      </c>
+      <c r="B37" s="18">
         <v>307</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
-      <c r="A38" s="19">
-        <v>1</v>
-      </c>
-      <c r="B38" s="19">
+      <c r="A38" s="18">
+        <v>1</v>
+      </c>
+      <c r="B38" s="18">
         <v>308</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" ht="40.5" spans="1:5">
-      <c r="A39" s="19">
-        <v>1</v>
-      </c>
-      <c r="B39" s="19">
+      <c r="A39" s="18">
+        <v>1</v>
+      </c>
+      <c r="B39" s="18">
         <v>309</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
-      <c r="A40" s="19">
-        <v>1</v>
-      </c>
-      <c r="B40" s="19">
+      <c r="A40" s="18">
+        <v>1</v>
+      </c>
+      <c r="B40" s="18">
         <v>310</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" ht="40.5" spans="1:5">
-      <c r="A41" s="19">
-        <v>1</v>
-      </c>
-      <c r="B41" s="19">
+      <c r="A41" s="18">
+        <v>1</v>
+      </c>
+      <c r="B41" s="18">
         <v>311</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" s="16" customFormat="1" ht="40.5" spans="1:5">
-      <c r="A42" s="19">
-        <v>1</v>
-      </c>
-      <c r="B42" s="19">
+      <c r="E41" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" s="15" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A42" s="18">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18">
         <v>312</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" s="16" customFormat="1" ht="27" spans="1:5">
-      <c r="A43" s="19">
-        <v>1</v>
-      </c>
-      <c r="B43" s="19">
+      <c r="E42" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" s="15" customFormat="1" ht="27" spans="1:5">
+      <c r="A43" s="18">
+        <v>1</v>
+      </c>
+      <c r="B43" s="18">
         <v>313</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" s="16" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A44" s="19">
-        <v>1</v>
-      </c>
-      <c r="B44" s="19">
+      <c r="E43" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" s="15" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A44" s="18">
+        <v>1</v>
+      </c>
+      <c r="B44" s="18">
         <v>314</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" s="16" customFormat="1" ht="27" spans="1:5">
-      <c r="A45" s="19">
-        <v>1</v>
-      </c>
-      <c r="B45" s="19">
+      <c r="E44" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" s="15" customFormat="1" ht="27" spans="1:5">
+      <c r="A45" s="18">
+        <v>1</v>
+      </c>
+      <c r="B45" s="18">
         <v>315</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" s="16" customFormat="1" ht="27" spans="1:5">
-      <c r="A46" s="19">
-        <v>1</v>
-      </c>
-      <c r="B46" s="19">
+      <c r="E45" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" s="15" customFormat="1" ht="27" spans="1:5">
+      <c r="A46" s="18">
+        <v>1</v>
+      </c>
+      <c r="B46" s="18">
         <v>316</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" s="28" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B47" s="40" t="s">
+      <c r="E46" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" s="27" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B47" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" s="29" customFormat="1" spans="2:5">
-      <c r="B49" s="41" t="s">
+    <row r="49" s="28" customFormat="1" spans="2:5">
+      <c r="B49" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="40" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2857,16 +2854,16 @@
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="18">
         <v>401</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2874,16 +2871,16 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="18">
         <v>402</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2891,260 +2888,260 @@
       <c r="A52">
         <v>1</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="18">
         <v>403</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" s="29" customFormat="1" spans="2:5">
-      <c r="B53" s="41" t="s">
+      <c r="E52" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" s="28" customFormat="1" spans="2:5">
+      <c r="B53" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="40" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="2:5">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" s="30" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B55" s="42" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" s="29" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B55" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="41" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:5">
-      <c r="A56" s="19">
-        <v>1</v>
-      </c>
-      <c r="B56" s="19">
+      <c r="A56" s="18">
+        <v>1</v>
+      </c>
+      <c r="B56" s="18">
         <v>501</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:5">
-      <c r="A57" s="19">
-        <v>1</v>
-      </c>
-      <c r="B57" s="19">
+      <c r="A57" s="18">
+        <v>1</v>
+      </c>
+      <c r="B57" s="18">
         <v>502</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:5">
-      <c r="A58" s="19">
-        <v>1</v>
-      </c>
-      <c r="B58" s="19">
+      <c r="A58" s="18">
+        <v>1</v>
+      </c>
+      <c r="B58" s="18">
         <v>503</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:5">
-      <c r="A59" s="19">
-        <v>1</v>
-      </c>
-      <c r="B59" s="19">
+      <c r="A59" s="18">
+        <v>1</v>
+      </c>
+      <c r="B59" s="18">
         <v>504</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" ht="27" spans="1:5">
-      <c r="A60" s="19">
-        <v>1</v>
-      </c>
-      <c r="B60" s="19">
+      <c r="A60" s="18">
+        <v>1</v>
+      </c>
+      <c r="B60" s="18">
         <v>505</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:5">
-      <c r="A61" s="19">
-        <v>1</v>
-      </c>
-      <c r="B61" s="19">
+      <c r="A61" s="18">
+        <v>1</v>
+      </c>
+      <c r="B61" s="18">
         <v>506</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" ht="27" spans="1:5">
-      <c r="A62" s="19">
-        <v>1</v>
-      </c>
-      <c r="B62" s="19">
+      <c r="A62" s="18">
+        <v>1</v>
+      </c>
+      <c r="B62" s="18">
         <v>507</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" s="30" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B63" s="42" t="s">
+      <c r="E62" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" s="29" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B63" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" s="31" customFormat="1" ht="14.25" spans="2:5">
-      <c r="B65" s="43" t="s">
+    <row r="65" s="30" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B65" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="42" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="66" ht="27" spans="1:5">
-      <c r="A66" s="19">
-        <v>1</v>
-      </c>
-      <c r="B66" s="19">
+      <c r="A66" s="18">
+        <v>1</v>
+      </c>
+      <c r="B66" s="18">
         <v>601</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:5">
-      <c r="A67" s="19">
-        <v>1</v>
-      </c>
-      <c r="B67" s="19">
+      <c r="A67" s="18">
+        <v>1</v>
+      </c>
+      <c r="B67" s="18">
         <v>602</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="24" t="s">
+      <c r="D67" s="18"/>
+      <c r="E67" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:5">
-      <c r="A68" s="19">
-        <v>1</v>
-      </c>
-      <c r="B68" s="19">
+      <c r="A68" s="18">
+        <v>1</v>
+      </c>
+      <c r="B68" s="18">
         <v>603</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
-      <c r="A69" s="19">
-        <v>1</v>
-      </c>
-      <c r="B69" s="19">
+      <c r="A69" s="18">
+        <v>1</v>
+      </c>
+      <c r="B69" s="18">
         <v>604</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3164,8 +3161,8 @@
   <sheetPr/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3181,452 +3178,464 @@
     <col min="11" max="11" width="58.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="96" customHeight="1" spans="1:11">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="3" customFormat="1" ht="96" customHeight="1" spans="1:11">
+      <c r="A1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>2</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21" t="s">
+    <row r="5" s="7" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1000</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
+    <row r="6" s="7" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1000</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
+    <row r="7" s="7" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>1000</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
+    <row r="8" s="7" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>100</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>100</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>-1</v>
       </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
+    <row r="9" s="7" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>1000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>-2</v>
       </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>1000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>1000</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" s="20" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A12" s="20">
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A12" s="19">
         <v>2</v>
       </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>100</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>100</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>0</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>-0.1</v>
       </c>
-      <c r="J12" s="20">
-        <v>1</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="2:5">
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="2:7">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="2:5">
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="2:7">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>6</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>146</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -3663,83 +3672,83 @@
     <col min="7" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="96" customHeight="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="3" customFormat="1" ht="96" customHeight="1" spans="1:6">
+      <c r="A1" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3765,113 +3774,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="31.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="81.875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="31.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="81.875" style="15" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="114" customHeight="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="3" customFormat="1" ht="114" customHeight="1" spans="1:5">
+      <c r="A1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="16">
-        <v>1</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3891,10 +3900,10 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3911,376 +3920,376 @@
     <col min="10" max="10" width="84.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="114" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="3" customFormat="1" ht="114" customHeight="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="b">
+      <c r="E5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>1000</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A6" s="15">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="G5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="15" t="b">
+      <c r="E6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>1000</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A7" s="15">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="G6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="15" t="b">
+      <c r="E7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>1000</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A8" s="15">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="G7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="E8" s="15" t="b">
+      <c r="E8" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>1000</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A9" s="15">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="G8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="15" t="b">
+      <c r="E9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>1000</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A10" s="15">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="G9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A10" s="14">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="15" t="b">
+      <c r="E10" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>1000</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A11" s="7">
+      <c r="G10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="b">
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>100</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" s="8" customFormat="1" ht="14.25"/>
-    <row r="13" s="8" customFormat="1" ht="14.25"/>
-    <row r="14" s="8" customFormat="1" ht="14.25"/>
-    <row r="15" s="8" customFormat="1" ht="14.25"/>
-    <row r="16" s="8" customFormat="1" ht="14.25"/>
-    <row r="17" s="8" customFormat="1" ht="14.25"/>
-    <row r="18" s="8" customFormat="1" ht="14.25"/>
-    <row r="19" s="8" customFormat="1" ht="14.25"/>
-    <row r="20" s="8" customFormat="1" ht="14.25"/>
-    <row r="21" s="8" customFormat="1" ht="14.25"/>
-    <row r="22" s="8" customFormat="1" ht="14.25"/>
-    <row r="23" s="8" customFormat="1" ht="14.25"/>
-    <row r="24" s="8" customFormat="1" ht="14.25"/>
-    <row r="25" s="8" customFormat="1" ht="14.25"/>
-    <row r="26" s="8" customFormat="1" ht="14.25"/>
-    <row r="27" s="8" customFormat="1" ht="14.25"/>
-    <row r="28" s="8" customFormat="1" ht="14.25"/>
-    <row r="29" s="8" customFormat="1" ht="14.25"/>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" ht="14.25"/>
+    <row r="13" s="7" customFormat="1" ht="14.25"/>
+    <row r="14" s="7" customFormat="1" ht="14.25"/>
+    <row r="15" s="7" customFormat="1" ht="14.25"/>
+    <row r="16" s="7" customFormat="1" ht="14.25"/>
+    <row r="17" s="7" customFormat="1" ht="14.25"/>
+    <row r="18" s="7" customFormat="1" ht="14.25"/>
+    <row r="19" s="7" customFormat="1" ht="14.25"/>
+    <row r="20" s="7" customFormat="1" ht="14.25"/>
+    <row r="21" s="7" customFormat="1" ht="14.25"/>
+    <row r="22" s="7" customFormat="1" ht="14.25"/>
+    <row r="23" s="7" customFormat="1" ht="14.25"/>
+    <row r="24" s="7" customFormat="1" ht="14.25"/>
+    <row r="25" s="7" customFormat="1" ht="14.25"/>
+    <row r="26" s="7" customFormat="1" ht="14.25"/>
+    <row r="27" s="7" customFormat="1" ht="14.25"/>
+    <row r="28" s="7" customFormat="1" ht="14.25"/>
+    <row r="29" s="7" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:J4">
@@ -4852,19 +4861,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>284</v>
       </c>
     </row>
